--- a/biology/Mycologie/MycoDB/MycoDB.xlsx
+++ b/biology/Mycologie/MycoDB/MycoDB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">MycoDB (pour Mycology Data Base, en français « Base de données mycologique ») est une base de données mycologique collaborative française en ligne. Elle permet aux mycologues francophones de décrire des champignons, de publier des photos et de gérer leurs récoltes.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette base de données et son moteur Internet ont été créés en 2006 par Rémy Péan (mycologue angevin) et Guillaume Péan (informaticien), à l'origine pour les mycologues de la Société d'Études Scientifiques de l'Anjou (SESA) puis après quelques mois seulement, étendue pour l'ensemble des mycologues francophones désireux de partager le fruit de leur travail mycologique.
 En janvier 2023, MycoDB compte environ 1620 membres pour la plupart mycologues appartenant à des sociétés mycologiques françaises, belges et suisses mais aussi espagnoles, algériennes, canadiennes, italiennes, etc. Leur travail collaboratif a permis de rassembler en seize ans environ 26 200 photos illustrant plus de 8 100 champignons.
